--- a/biology/Microbiologie/Actinomycetota/Actinomycetota.xlsx
+++ b/biology/Microbiologie/Actinomycetota/Actinomycetota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Actinomycetota (en français les Actinomycètes) sont un phylum du règne des Bacteria. Son nom provient de Actinomyces qui est le genre type de cet embranchement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Actinomycetota (en français les Actinomycètes) sont un phylum du règne des Bacteria. Son nom provient de Actinomyces qui est le genre type de cet embranchement.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé dès 2012 par M. Goodfellow dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Actinobacteria »[1]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[2] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Actinomyces, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé dès 2012 par M. Goodfellow dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Actinobacteria ». Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Actinomyces, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (10 novembre 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (10 novembre 2022) :
 Acidimicrobiia Norris 2013
 Actinomycetes Krassilnikov 1949
 Coriobacteriia König 2013
